--- a/experiment1_j_new.xlsx
+++ b/experiment1_j_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcela Morassi\Documents\Github\ClarkLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1BBBADC-1071-4276-91B4-BF4D3D03B3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6DABA02A-A4F0-4ACD-A369-3F4B959C9800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
   </bookViews>
@@ -20,13 +20,13 @@
   </externalReferences>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="25">
   <si>
     <t>plate_id</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Average of root</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1038,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Rd4Results_Analysis!$G$20:$G$21</c:f>
+              <c:f>experiment1_j_new!$L$7:$L$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1065,7 +1068,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>experiment1_j_new!$L$3:$L$4</c:f>
+                <c:f>experiment1_j_new!$Q$3:$Q$4</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -1080,7 +1083,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>experiment1_j_new!$L$3:$L$4</c:f>
+                <c:f>experiment1_j_new!$Q$3:$Q$4</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -1106,7 +1109,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Rd4Results_Analysis!$G$20:$G$21</c:f>
+              <c:f>experiment1_j_new!$K$9:$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1120,15 +1123,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Rd4Results_Analysis!$G$20:$G$21</c:f>
+              <c:f>experiment1_j_new!$L$9:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.52023913043478265</c:v>
+                  <c:v>2.9913750000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9605000000000006</c:v>
+                  <c:v>3.0364102564102571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,7 +1147,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Rd4Results_Analysis!$G$20:$G$21</c:f>
+              <c:f>experiment1_j_new!$M$7:$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1174,7 +1177,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>experiment1_j_new!$M$3:$M$4</c:f>
+                <c:f>experiment1_j_new!$R$3:$R$4</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -1189,7 +1192,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>experiment1_j_new!$M$3:$M$4</c:f>
+                <c:f>experiment1_j_new!$R$3:$R$4</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -1215,7 +1218,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Rd4Results_Analysis!$G$20:$G$21</c:f>
+              <c:f>experiment1_j_new!$K$9:$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1229,12 +1232,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Rd4Results_Analysis!$G$20:$G$21</c:f>
+              <c:f>experiment1_j_new!$M$9:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.24275000000000002</c:v>
+                  <c:v>1.2137500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.2927272727272725</c:v>
@@ -1410,10 +1413,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12067947446633388"/>
-          <c:y val="2.2695319474131219E-2"/>
-          <c:w val="0.21050214026679312"/>
-          <c:h val="0.27093957967061616"/>
+          <c:x val="0.39321912990062508"/>
+          <c:y val="2.878955950367636E-2"/>
+          <c:w val="0.20047252932342746"/>
+          <c:h val="0.1221887824068181"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1500,14 +1503,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>116204</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158114</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:colOff>659130</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1540,11 +1543,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.64324</cdr:x>
-      <cdr:y>0.83618</cdr:y>
+      <cdr:y>0.92068</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.8894</cdr:x>
-      <cdr:y>0.98093</cdr:y>
+      <cdr:y>0.98658</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1559,8 +1562,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3434716" y="2505670"/>
-          <a:ext cx="1314449" cy="433746"/>
+          <a:off x="3488633" y="2874646"/>
+          <a:ext cx="1335083" cy="205740"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2255,7 +2258,325 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-09-24T10:55:00" maxDate="2021-09-28T10:42:00"/>
     </cacheField>
     <cacheField name="root" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4.6369999999999996"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4.6369999999999996" count="317">
+        <n v="0"/>
+        <n v="0.27500000000000002"/>
+        <n v="0.55900000000000005"/>
+        <n v="0.45100000000000001"/>
+        <n v="0.59099999999999997"/>
+        <n v="0.496"/>
+        <n v="0.68400000000000005"/>
+        <n v="0.58299999999999996"/>
+        <n v="0.73099999999999998"/>
+        <n v="0.504"/>
+        <n v="0.57299999999999995"/>
+        <n v="0.6"/>
+        <n v="0.64200000000000002"/>
+        <n v="0.60499999999999998"/>
+        <n v="0.748"/>
+        <n v="0.435"/>
+        <n v="0.67100000000000004"/>
+        <n v="0.53900000000000003"/>
+        <n v="0.67900000000000005"/>
+        <n v="0.42399999999999999"/>
+        <n v="0.58199999999999996"/>
+        <n v="0.623"/>
+        <n v="0.35299999999999998"/>
+        <n v="0.51600000000000001"/>
+        <n v="0.71299999999999997"/>
+        <n v="0.73"/>
+        <n v="0.46800000000000003"/>
+        <n v="0.52800000000000002"/>
+        <n v="0.69399999999999995"/>
+        <n v="0.83099999999999996"/>
+        <n v="0.72499999999999998"/>
+        <n v="0.69199999999999995"/>
+        <n v="0.51100000000000001"/>
+        <n v="0.68300000000000005"/>
+        <n v="0.63500000000000001"/>
+        <n v="0.66"/>
+        <n v="0.59899999999999998"/>
+        <n v="0.47199999999999998"/>
+        <n v="0.71599999999999997"/>
+        <n v="0.622"/>
+        <n v="0.47"/>
+        <n v="0.41499999999999998"/>
+        <n v="0.52700000000000002"/>
+        <n v="0.59499999999999997"/>
+        <n v="0.54700000000000004"/>
+        <n v="0.38700000000000001"/>
+        <n v="0.63100000000000001"/>
+        <n v="0.57799999999999996"/>
+        <n v="0.48799999999999999"/>
+        <n v="0.48499999999999999"/>
+        <n v="0.56200000000000006"/>
+        <n v="0.65500000000000003"/>
+        <n v="0.55700000000000005"/>
+        <n v="0.60199999999999998"/>
+        <n v="0.36"/>
+        <n v="0.55800000000000005"/>
+        <n v="0.45"/>
+        <n v="0.53400000000000003"/>
+        <n v="0.89200000000000002"/>
+        <n v="1.4350000000000001"/>
+        <n v="0.89800000000000002"/>
+        <n v="0.86299999999999999"/>
+        <n v="0.78500000000000003"/>
+        <n v="1.0109999999999999"/>
+        <n v="0.64800000000000002"/>
+        <n v="0.51900000000000002"/>
+        <n v="1.2010000000000001"/>
+        <n v="1.413"/>
+        <n v="1.2150000000000001"/>
+        <n v="1.04"/>
+        <n v="1.0069999999999999"/>
+        <n v="1.167"/>
+        <n v="0.46899999999999997"/>
+        <n v="1.2769999999999999"/>
+        <n v="1.046"/>
+        <n v="1.3480000000000001"/>
+        <n v="1.2709999999999999"/>
+        <n v="1.4219999999999999"/>
+        <n v="1.175"/>
+        <n v="0.84299999999999997"/>
+        <n v="1.226"/>
+        <n v="1.2490000000000001"/>
+        <n v="0.999"/>
+        <n v="1.0229999999999999"/>
+        <n v="0.51"/>
+        <n v="0.72299999999999998"/>
+        <n v="1.2509999999999999"/>
+        <n v="1.1359999999999999"/>
+        <n v="0.82299999999999995"/>
+        <n v="0.94299999999999995"/>
+        <n v="1.0349999999999999"/>
+        <n v="1.17"/>
+        <n v="1.139"/>
+        <n v="1.048"/>
+        <n v="0.497"/>
+        <n v="0.97699999999999998"/>
+        <n v="1.2310000000000001"/>
+        <n v="1.2090000000000001"/>
+        <n v="1.121"/>
+        <n v="1.151"/>
+        <n v="1.077"/>
+        <n v="0.54500000000000004"/>
+        <n v="1.2969999999999999"/>
+        <n v="0.85199999999999998"/>
+        <n v="1.0209999999999999"/>
+        <n v="1.0840000000000001"/>
+        <n v="1.1259999999999999"/>
+        <n v="0.81599999999999995"/>
+        <n v="0.76200000000000001"/>
+        <n v="1.1439999999999999"/>
+        <n v="0.96799999999999997"/>
+        <n v="1.1739999999999999"/>
+        <n v="0.91100000000000003"/>
+        <n v="0.77800000000000002"/>
+        <n v="0.98199999999999998"/>
+        <n v="1.198"/>
+        <n v="0.438"/>
+        <n v="1.036"/>
+        <n v="1.008"/>
+        <n v="1.161"/>
+        <n v="1.0089999999999999"/>
+        <n v="1.917"/>
+        <n v="2.1930000000000001"/>
+        <n v="1.6679999999999999"/>
+        <n v="1.591"/>
+        <n v="1.0489999999999999"/>
+        <n v="2.2679999999999998"/>
+        <n v="1.099"/>
+        <n v="1.181"/>
+        <n v="2.3969999999999998"/>
+        <n v="1.9339999999999999"/>
+        <n v="2.089"/>
+        <n v="2.1739999999999999"/>
+        <n v="2.06"/>
+        <n v="1.4"/>
+        <n v="0.79300000000000004"/>
+        <n v="1.446"/>
+        <n v="1.6"/>
+        <n v="1.823"/>
+        <n v="1.7190000000000001"/>
+        <n v="2.0950000000000002"/>
+        <n v="1.8660000000000001"/>
+        <n v="1.794"/>
+        <n v="1.51"/>
+        <n v="1.6819999999999999"/>
+        <n v="1.4770000000000001"/>
+        <n v="1.7609999999999999"/>
+        <n v="0.61199999999999999"/>
+        <n v="0.78400000000000003"/>
+        <n v="2.2160000000000002"/>
+        <n v="1.623"/>
+        <n v="1.645"/>
+        <n v="1.5660000000000001"/>
+        <n v="1.5740000000000001"/>
+        <n v="1.3360000000000001"/>
+        <n v="1.68"/>
+        <n v="1.865"/>
+        <n v="1.754"/>
+        <n v="1.9710000000000001"/>
+        <n v="2.117"/>
+        <n v="1.9379999999999999"/>
+        <n v="1.419"/>
+        <n v="1.5880000000000001"/>
+        <n v="1.538"/>
+        <n v="1.7290000000000001"/>
+        <n v="1.7749999999999999"/>
+        <n v="1.83"/>
+        <n v="2.14"/>
+        <n v="1.724"/>
+        <n v="1.8129999999999999"/>
+        <n v="1.3680000000000001"/>
+        <n v="1.43"/>
+        <n v="2.0169999999999999"/>
+        <n v="1.7829999999999999"/>
+        <n v="1.952"/>
+        <n v="1.915"/>
+        <n v="1.9159999999999999"/>
+        <n v="1.883"/>
+        <n v="1.931"/>
+        <n v="2.2629999999999999"/>
+        <n v="2.097"/>
+        <n v="1.7849999999999999"/>
+        <n v="2.0609999999999999"/>
+        <n v="1.7649999999999999"/>
+        <n v="0.873"/>
+        <n v="3.488"/>
+        <n v="3.0529999999999999"/>
+        <n v="3.0750000000000002"/>
+        <n v="2.5910000000000002"/>
+        <n v="3.044"/>
+        <n v="0.61499999999999999"/>
+        <n v="0.69599999999999995"/>
+        <n v="0.59599999999999997"/>
+        <n v="1.4550000000000001"/>
+        <n v="1.728"/>
+        <n v="2.8479999999999999"/>
+        <n v="2.266"/>
+        <n v="2.6949999999999998"/>
+        <n v="2.4060000000000001"/>
+        <n v="2.4209999999999998"/>
+        <n v="2.9870000000000001"/>
+        <n v="0.95499999999999996"/>
+        <n v="1.8859999999999999"/>
+        <n v="2.488"/>
+        <n v="2.673"/>
+        <n v="2.0190000000000001"/>
+        <n v="3.069"/>
+        <n v="2.6779999999999999"/>
+        <n v="1.9610000000000001"/>
+        <n v="2.2480000000000002"/>
+        <n v="2.0910000000000002"/>
+        <n v="1.762"/>
+        <n v="2.5299999999999998"/>
+        <n v="0.746"/>
+        <n v="3.3079999999999998"/>
+        <n v="2.3479999999999999"/>
+        <n v="2.516"/>
+        <n v="1.6479999999999999"/>
+        <n v="1.91"/>
+        <n v="2.4569999999999999"/>
+        <n v="3.012"/>
+        <n v="3.0350000000000001"/>
+        <n v="2.1219999999999999"/>
+        <n v="3.2229999999999999"/>
+        <n v="2.8359999999999999"/>
+        <n v="3.149"/>
+        <n v="1.595"/>
+        <n v="2.1819999999999999"/>
+        <n v="1.978"/>
+        <n v="2.2090000000000001"/>
+        <n v="2.1110000000000002"/>
+        <n v="2.347"/>
+        <n v="2.988"/>
+        <n v="2.1269999999999998"/>
+        <n v="2.714"/>
+        <n v="1.804"/>
+        <n v="1.9570000000000001"/>
+        <n v="2.6120000000000001"/>
+        <n v="2.7410000000000001"/>
+        <n v="3.1659999999999999"/>
+        <n v="2.5649999999999999"/>
+        <n v="2.68"/>
+        <n v="2.7970000000000002"/>
+        <n v="2.6429999999999998"/>
+        <n v="1.091"/>
+        <n v="3.3730000000000002"/>
+        <n v="2.3690000000000002"/>
+        <n v="2.5169999999999999"/>
+        <n v="3.2719999999999998"/>
+        <n v="2.415"/>
+        <n v="2.669"/>
+        <n v="1.1319999999999999"/>
+        <n v="4.4530000000000003"/>
+        <n v="4.6369999999999996"/>
+        <n v="3.319"/>
+        <n v="3.222"/>
+        <n v="0.82"/>
+        <n v="2.1259999999999999"/>
+        <n v="4.2220000000000004"/>
+        <n v="1.3049999999999999"/>
+        <n v="0.76100000000000001"/>
+        <n v="2.5249999999999999"/>
+        <n v="2.6440000000000001"/>
+        <n v="3.278"/>
+        <n v="3.17"/>
+        <n v="3.4049999999999998"/>
+        <n v="2.879"/>
+        <n v="3.06"/>
+        <n v="3.1560000000000001"/>
+        <n v="1.1100000000000001"/>
+        <n v="2.8010000000000002"/>
+        <n v="2.8940000000000001"/>
+        <n v="3.36"/>
+        <n v="2.66"/>
+        <n v="4.0890000000000004"/>
+        <n v="3.395"/>
+        <n v="2.8210000000000002"/>
+        <n v="2.8220000000000001"/>
+        <n v="2.8029999999999999"/>
+        <n v="2.4529999999999998"/>
+        <n v="3.33"/>
+        <n v="2.0179999999999998"/>
+        <n v="4.1820000000000004"/>
+        <n v="3.3679999999999999"/>
+        <n v="3.516"/>
+        <n v="1.7090000000000001"/>
+        <n v="3.1749999999999998"/>
+        <n v="2.3180000000000001"/>
+        <n v="3.3839999999999999"/>
+        <n v="4.3339999999999996"/>
+        <n v="3.9910000000000001"/>
+        <n v="2.923"/>
+        <n v="4.375"/>
+        <n v="3.6179999999999999"/>
+        <n v="4.4800000000000004"/>
+        <n v="1.7789999999999999"/>
+        <n v="3.5030000000000001"/>
+        <n v="2.681"/>
+        <n v="3.0630000000000002"/>
+        <n v="3.4470000000000001"/>
+        <n v="3.109"/>
+        <n v="3.0139999999999998"/>
+        <n v="3.8050000000000002"/>
+        <n v="3.1139999999999999"/>
+        <n v="3.754"/>
+        <n v="2.7160000000000002"/>
+        <n v="2.8319999999999999"/>
+        <n v="3.6629999999999998"/>
+        <n v="3.61"/>
+        <n v="4.0780000000000003"/>
+        <n v="3.0640000000000001"/>
+        <n v="3.78"/>
+        <n v="2.9"/>
+        <n v="3.004"/>
+        <n v="4.2759999999999998"/>
+        <n v="3.0329999999999999"/>
+        <n v="3.0659999999999998"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2277,7 +2598,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2288,7 +2609,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2299,7 +2620,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2310,7 +2631,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2321,7 +2642,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2332,7 +2653,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2343,7 +2664,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2354,7 +2675,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2365,7 +2686,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2376,7 +2697,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2387,7 +2708,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2398,7 +2719,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2409,7 +2730,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2420,7 +2741,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2431,7 +2752,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0.27500000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2442,7 +2763,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2453,7 +2774,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2464,7 +2785,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2475,7 +2796,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2486,7 +2807,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0.55900000000000005"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2497,7 +2818,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -2508,7 +2829,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:55:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2519,7 +2840,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2530,7 +2851,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2541,7 +2862,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.45100000000000001"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2552,7 +2873,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2563,7 +2884,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2574,7 +2895,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2585,7 +2906,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.59099999999999997"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2596,7 +2917,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2607,7 +2928,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2618,7 +2939,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2629,7 +2950,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2640,7 +2961,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2651,7 +2972,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2662,7 +2983,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2673,7 +2994,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2684,7 +3005,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2695,7 +3016,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2706,7 +3027,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2717,7 +3038,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2728,7 +3049,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2739,7 +3060,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2750,7 +3071,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2761,7 +3082,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -2772,7 +3093,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2783,7 +3104,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2794,7 +3115,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2805,7 +3126,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2816,7 +3137,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2827,7 +3148,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2838,7 +3159,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2849,7 +3170,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2860,7 +3181,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2871,7 +3192,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2882,7 +3203,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2893,7 +3214,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2904,7 +3225,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2915,7 +3236,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2926,7 +3247,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2937,7 +3258,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2948,7 +3269,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2959,7 +3280,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2970,7 +3291,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2981,7 +3302,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -2992,7 +3313,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:57:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3003,7 +3324,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.496"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3014,7 +3335,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3025,7 +3346,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.68400000000000005"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3036,7 +3357,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.58299999999999996"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3047,7 +3368,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3058,7 +3379,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.73099999999999998"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3069,7 +3390,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.504"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3080,7 +3401,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.57299999999999995"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3091,7 +3412,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.6"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3102,7 +3423,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3113,7 +3434,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.64200000000000002"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3124,7 +3445,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.60499999999999998"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3135,7 +3456,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.748"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3146,7 +3467,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.435"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3157,7 +3478,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.67100000000000004"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3168,7 +3489,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.58299999999999996"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3179,7 +3500,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.53900000000000003"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3190,7 +3511,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.67900000000000005"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3201,7 +3522,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.42399999999999999"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -3212,7 +3533,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.58199999999999996"/>
+    <x v="20"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3223,7 +3544,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.623"/>
+    <x v="21"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3234,7 +3555,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.35299999999999998"/>
+    <x v="22"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3245,7 +3566,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.51600000000000001"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3256,7 +3577,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.71299999999999997"/>
+    <x v="24"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3267,7 +3588,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.73"/>
+    <x v="25"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3278,7 +3599,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.46800000000000003"/>
+    <x v="26"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3289,7 +3610,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.52800000000000002"/>
+    <x v="27"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3300,7 +3621,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.69399999999999995"/>
+    <x v="28"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3311,7 +3632,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.83099999999999996"/>
+    <x v="29"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3322,7 +3643,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.72499999999999998"/>
+    <x v="30"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3333,7 +3654,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.69199999999999995"/>
+    <x v="31"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3344,7 +3665,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.51100000000000001"/>
+    <x v="32"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3355,7 +3676,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.68300000000000005"/>
+    <x v="33"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3366,7 +3687,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.63500000000000001"/>
+    <x v="34"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3377,7 +3698,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.66"/>
+    <x v="35"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3388,7 +3709,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.59899999999999998"/>
+    <x v="36"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3399,7 +3720,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.47199999999999998"/>
+    <x v="37"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3410,7 +3731,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.71599999999999997"/>
+    <x v="38"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3421,7 +3742,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0.622"/>
+    <x v="39"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -3432,7 +3753,7 @@
     <x v="0"/>
     <x v="0"/>
     <d v="2021-09-24T10:56:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3443,7 +3764,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3454,7 +3775,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.47"/>
+    <x v="40"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3465,7 +3786,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.47199999999999998"/>
+    <x v="37"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3476,7 +3797,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.41499999999999998"/>
+    <x v="41"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3487,7 +3808,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.52700000000000002"/>
+    <x v="42"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3498,7 +3819,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.59499999999999997"/>
+    <x v="43"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3509,7 +3830,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.54700000000000004"/>
+    <x v="44"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3520,7 +3841,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.38700000000000001"/>
+    <x v="45"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3531,7 +3852,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.63100000000000001"/>
+    <x v="46"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3542,7 +3863,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.52800000000000002"/>
+    <x v="27"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3553,7 +3874,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.57799999999999996"/>
+    <x v="47"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3564,7 +3885,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.48799999999999999"/>
+    <x v="48"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3575,7 +3896,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.48499999999999999"/>
+    <x v="49"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3586,7 +3907,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.56200000000000006"/>
+    <x v="50"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3597,7 +3918,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.65500000000000003"/>
+    <x v="51"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3608,7 +3929,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3619,7 +3940,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.55700000000000005"/>
+    <x v="52"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3630,7 +3951,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.60199999999999998"/>
+    <x v="53"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3641,7 +3962,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.36"/>
+    <x v="54"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3652,7 +3973,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.55800000000000005"/>
+    <x v="55"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3663,7 +3984,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.45"/>
+    <x v="56"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -3674,7 +3995,7 @@
     <x v="1"/>
     <x v="0"/>
     <d v="2021-09-24T10:58:00"/>
-    <n v="0.53400000000000003"/>
+    <x v="57"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3685,7 +4006,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3696,7 +4017,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3707,7 +4028,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3718,7 +4039,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3729,7 +4050,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3740,7 +4061,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3751,7 +4072,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3762,7 +4083,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3773,7 +4094,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3784,7 +4105,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3795,7 +4116,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3806,7 +4127,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3817,7 +4138,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3828,7 +4149,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3839,7 +4160,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.89200000000000002"/>
+    <x v="58"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3850,7 +4171,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3861,7 +4182,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3872,7 +4193,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3883,7 +4204,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3894,7 +4215,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.4350000000000001"/>
+    <x v="59"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3905,7 +4226,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -3916,7 +4237,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -3927,7 +4248,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -3938,7 +4259,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -3949,7 +4270,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.89800000000000002"/>
+    <x v="60"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -3960,7 +4281,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -3971,7 +4292,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -3982,7 +4303,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -3993,7 +4314,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.86299999999999999"/>
+    <x v="61"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4004,7 +4325,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4015,7 +4336,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4026,7 +4347,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4037,7 +4358,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4048,7 +4369,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4059,7 +4380,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4070,7 +4391,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.78500000000000003"/>
+    <x v="62"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4081,7 +4402,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4092,7 +4413,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4103,7 +4424,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4114,7 +4435,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.0109999999999999"/>
+    <x v="63"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4125,7 +4446,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4136,7 +4457,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4147,7 +4468,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4158,7 +4479,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4169,7 +4490,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -4180,7 +4501,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4191,7 +4512,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4202,7 +4523,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4213,7 +4534,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4224,7 +4545,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4235,7 +4556,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4246,7 +4567,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4257,7 +4578,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4268,7 +4589,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4279,7 +4600,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4290,7 +4611,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4301,7 +4622,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4312,7 +4633,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4323,7 +4644,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4334,7 +4655,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4345,7 +4666,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4356,7 +4677,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4367,7 +4688,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4378,7 +4699,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4389,7 +4710,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -4400,7 +4721,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4411,7 +4732,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.64800000000000002"/>
+    <x v="64"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4422,7 +4743,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.51900000000000002"/>
+    <x v="65"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4433,7 +4754,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.2010000000000001"/>
+    <x v="66"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4444,7 +4765,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.413"/>
+    <x v="67"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4455,7 +4776,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4466,7 +4787,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.2150000000000001"/>
+    <x v="68"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4477,7 +4798,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.04"/>
+    <x v="69"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4488,7 +4809,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.0069999999999999"/>
+    <x v="70"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4499,7 +4820,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.167"/>
+    <x v="71"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4510,7 +4831,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.46899999999999997"/>
+    <x v="72"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4521,7 +4842,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.2769999999999999"/>
+    <x v="73"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4532,7 +4853,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.046"/>
+    <x v="74"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4543,7 +4864,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.3480000000000001"/>
+    <x v="75"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4554,7 +4875,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.2709999999999999"/>
+    <x v="76"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4565,7 +4886,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.4219999999999999"/>
+    <x v="77"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4576,7 +4897,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.175"/>
+    <x v="78"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4587,7 +4908,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.84299999999999997"/>
+    <x v="79"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4598,7 +4919,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.226"/>
+    <x v="80"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4609,7 +4930,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.2490000000000001"/>
+    <x v="81"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -4620,7 +4941,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.999"/>
+    <x v="82"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4631,7 +4952,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.0229999999999999"/>
+    <x v="83"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4642,7 +4963,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.51"/>
+    <x v="84"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4653,7 +4974,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.72299999999999998"/>
+    <x v="85"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4664,7 +4985,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.2509999999999999"/>
+    <x v="86"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4675,7 +4996,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.1359999999999999"/>
+    <x v="87"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4686,7 +5007,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.82299999999999995"/>
+    <x v="88"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4697,7 +5018,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.94299999999999995"/>
+    <x v="89"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4708,7 +5029,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.0349999999999999"/>
+    <x v="90"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4719,7 +5040,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.17"/>
+    <x v="91"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4730,7 +5051,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.139"/>
+    <x v="92"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4741,7 +5062,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.048"/>
+    <x v="93"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4752,7 +5073,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.497"/>
+    <x v="94"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4763,7 +5084,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.97699999999999998"/>
+    <x v="95"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4774,7 +5095,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.2310000000000001"/>
+    <x v="96"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4785,7 +5106,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.2090000000000001"/>
+    <x v="97"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4796,7 +5117,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.121"/>
+    <x v="98"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4807,7 +5128,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.04"/>
+    <x v="69"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4818,7 +5139,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.151"/>
+    <x v="99"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4829,7 +5150,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="1.077"/>
+    <x v="100"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -4840,7 +5161,7 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2021-09-25T11:31:00"/>
-    <n v="0.54500000000000004"/>
+    <x v="101"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4851,7 +5172,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.2969999999999999"/>
+    <x v="102"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4862,7 +5183,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.85199999999999998"/>
+    <x v="103"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4873,7 +5194,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.0209999999999999"/>
+    <x v="104"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4884,7 +5205,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.0840000000000001"/>
+    <x v="105"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4895,7 +5216,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.97699999999999998"/>
+    <x v="95"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4906,7 +5227,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.1259999999999999"/>
+    <x v="106"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4917,7 +5238,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.81599999999999995"/>
+    <x v="107"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4928,7 +5249,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.76200000000000001"/>
+    <x v="108"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4939,7 +5260,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.1439999999999999"/>
+    <x v="109"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4950,7 +5271,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.96799999999999997"/>
+    <x v="110"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4961,7 +5282,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.1739999999999999"/>
+    <x v="111"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4972,7 +5293,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.91100000000000003"/>
+    <x v="112"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4983,7 +5304,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.77800000000000002"/>
+    <x v="113"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -4994,7 +5315,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.98199999999999998"/>
+    <x v="114"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -5005,7 +5326,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.198"/>
+    <x v="115"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -5016,7 +5337,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.438"/>
+    <x v="116"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -5027,7 +5348,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.0840000000000001"/>
+    <x v="105"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -5038,7 +5359,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.036"/>
+    <x v="117"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -5049,7 +5370,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="0.72499999999999998"/>
+    <x v="30"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -5060,7 +5381,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.008"/>
+    <x v="118"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -5071,7 +5392,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.161"/>
+    <x v="119"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -5082,7 +5403,7 @@
     <x v="1"/>
     <x v="1"/>
     <d v="2021-09-25T11:32:00"/>
-    <n v="1.0089999999999999"/>
+    <x v="120"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5093,7 +5414,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5104,7 +5425,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5115,7 +5436,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5126,7 +5447,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5137,7 +5458,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5148,7 +5469,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5159,7 +5480,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5170,7 +5491,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5181,7 +5502,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5192,7 +5513,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5203,7 +5524,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5214,7 +5535,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5225,7 +5546,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5236,7 +5557,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5247,7 +5568,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.917"/>
+    <x v="121"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5258,7 +5579,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5269,7 +5590,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5280,7 +5601,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5291,7 +5612,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5302,7 +5623,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.1930000000000001"/>
+    <x v="122"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5313,7 +5634,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -5324,7 +5645,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5335,7 +5656,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5346,7 +5667,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5357,7 +5678,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.6679999999999999"/>
+    <x v="123"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5368,7 +5689,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5379,7 +5700,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5390,7 +5711,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5401,7 +5722,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.591"/>
+    <x v="124"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5412,7 +5733,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5423,7 +5744,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5434,7 +5755,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5445,7 +5766,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5456,7 +5777,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5467,7 +5788,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5478,7 +5799,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.0489999999999999"/>
+    <x v="125"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5489,7 +5810,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5500,7 +5821,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5511,7 +5832,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5522,7 +5843,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.2679999999999998"/>
+    <x v="126"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5533,7 +5854,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5544,7 +5865,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5555,7 +5876,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5566,7 +5887,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5577,7 +5898,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -5588,7 +5909,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5599,7 +5920,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5610,7 +5931,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5621,7 +5942,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5632,7 +5953,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5643,7 +5964,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5654,7 +5975,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5665,7 +5986,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5676,7 +5997,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5687,7 +6008,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5698,7 +6019,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5709,7 +6030,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5720,7 +6041,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5731,7 +6052,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5742,7 +6063,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5753,7 +6074,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5764,7 +6085,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5775,7 +6096,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5786,7 +6107,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5797,7 +6118,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -5808,7 +6129,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5819,7 +6140,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.099"/>
+    <x v="127"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5830,7 +6151,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.181"/>
+    <x v="128"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5841,7 +6162,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.3969999999999998"/>
+    <x v="129"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5852,7 +6173,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.9339999999999999"/>
+    <x v="130"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5863,7 +6184,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5874,7 +6195,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.089"/>
+    <x v="131"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5885,7 +6206,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.1739999999999999"/>
+    <x v="132"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5896,7 +6217,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.06"/>
+    <x v="133"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5907,7 +6228,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.4"/>
+    <x v="134"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5918,7 +6239,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0.79300000000000004"/>
+    <x v="135"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5929,7 +6250,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.446"/>
+    <x v="136"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5940,7 +6261,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.6"/>
+    <x v="137"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5951,7 +6272,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.823"/>
+    <x v="138"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5962,7 +6283,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.7190000000000001"/>
+    <x v="139"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5973,7 +6294,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.0950000000000002"/>
+    <x v="140"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5984,7 +6305,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.8660000000000001"/>
+    <x v="141"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -5995,7 +6316,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.794"/>
+    <x v="142"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -6006,7 +6327,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.51"/>
+    <x v="143"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -6017,7 +6338,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.6819999999999999"/>
+    <x v="144"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -6028,7 +6349,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.4770000000000001"/>
+    <x v="145"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6039,7 +6360,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.7609999999999999"/>
+    <x v="146"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6050,7 +6371,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0.61199999999999999"/>
+    <x v="147"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6061,7 +6382,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0.78400000000000003"/>
+    <x v="148"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6072,7 +6393,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.2160000000000002"/>
+    <x v="149"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6083,7 +6404,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.623"/>
+    <x v="150"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6094,7 +6415,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.645"/>
+    <x v="151"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6105,7 +6426,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.5660000000000001"/>
+    <x v="152"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6116,7 +6437,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.5740000000000001"/>
+    <x v="153"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6127,7 +6448,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.3360000000000001"/>
+    <x v="154"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6138,7 +6459,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.68"/>
+    <x v="155"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6149,7 +6470,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.917"/>
+    <x v="121"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6160,7 +6481,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.865"/>
+    <x v="156"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6171,7 +6492,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.754"/>
+    <x v="157"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6182,7 +6503,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.9710000000000001"/>
+    <x v="158"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6193,7 +6514,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.117"/>
+    <x v="159"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6204,7 +6525,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.9379999999999999"/>
+    <x v="160"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6215,7 +6536,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.419"/>
+    <x v="161"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6226,7 +6547,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.5880000000000001"/>
+    <x v="162"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6237,7 +6558,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.538"/>
+    <x v="163"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -6248,7 +6569,7 @@
     <x v="0"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.446"/>
+    <x v="136"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6259,7 +6580,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.7290000000000001"/>
+    <x v="164"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6270,7 +6591,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.7749999999999999"/>
+    <x v="165"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6281,7 +6602,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.83"/>
+    <x v="166"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6292,7 +6613,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.14"/>
+    <x v="167"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6303,7 +6624,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.724"/>
+    <x v="168"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6314,7 +6635,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.8129999999999999"/>
+    <x v="169"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6325,7 +6646,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.3680000000000001"/>
+    <x v="170"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6336,7 +6657,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.43"/>
+    <x v="171"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6347,7 +6668,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.0169999999999999"/>
+    <x v="172"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6358,7 +6679,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.7829999999999999"/>
+    <x v="173"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6369,7 +6690,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.952"/>
+    <x v="174"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6380,7 +6701,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.915"/>
+    <x v="175"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6391,7 +6712,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.9159999999999999"/>
+    <x v="176"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6402,7 +6723,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.883"/>
+    <x v="177"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6413,7 +6734,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.931"/>
+    <x v="178"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6424,7 +6745,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="0.46899999999999997"/>
+    <x v="72"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6435,7 +6756,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.2629999999999999"/>
+    <x v="179"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6446,7 +6767,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.097"/>
+    <x v="180"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6457,7 +6778,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.7849999999999999"/>
+    <x v="181"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6468,7 +6789,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="2.0609999999999999"/>
+    <x v="182"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6479,7 +6800,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.7649999999999999"/>
+    <x v="183"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -6490,7 +6811,7 @@
     <x v="1"/>
     <x v="2"/>
     <d v="2021-09-26T10:26:00"/>
-    <n v="1.9379999999999999"/>
+    <x v="160"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6501,7 +6822,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6512,7 +6833,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6523,7 +6844,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6534,7 +6855,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6545,7 +6866,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6556,7 +6877,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6567,7 +6888,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6578,7 +6899,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6589,7 +6910,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6600,7 +6921,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6611,7 +6932,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6622,7 +6943,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6633,7 +6954,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0.873"/>
+    <x v="184"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6644,7 +6965,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6655,7 +6976,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.488"/>
+    <x v="185"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6666,7 +6987,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6677,7 +6998,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6688,7 +7009,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6699,7 +7020,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6710,7 +7031,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.0529999999999999"/>
+    <x v="186"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6721,7 +7042,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -6732,7 +7053,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6743,7 +7064,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6754,7 +7075,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6765,7 +7086,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.0750000000000002"/>
+    <x v="187"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6776,7 +7097,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6787,7 +7108,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6798,7 +7119,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6809,7 +7130,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.5910000000000002"/>
+    <x v="188"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6820,7 +7141,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6831,7 +7152,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6842,7 +7163,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6853,7 +7174,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6864,7 +7185,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6875,7 +7196,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6886,7 +7207,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.413"/>
+    <x v="67"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6897,7 +7218,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6908,7 +7229,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6919,7 +7240,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6930,7 +7251,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.044"/>
+    <x v="189"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6941,7 +7262,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6952,7 +7273,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6963,7 +7284,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6974,7 +7295,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6985,7 +7306,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -6996,7 +7317,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7007,7 +7328,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7018,7 +7339,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7029,7 +7350,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7040,7 +7361,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7051,7 +7372,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7062,7 +7383,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7073,7 +7394,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7084,7 +7405,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7095,7 +7416,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0.61499999999999999"/>
+    <x v="190"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7106,7 +7427,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0.69599999999999995"/>
+    <x v="191"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7117,7 +7438,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7128,7 +7449,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7139,7 +7460,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7150,7 +7471,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0.59599999999999997"/>
+    <x v="192"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7161,7 +7482,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7172,7 +7493,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7183,7 +7504,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7194,7 +7515,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7205,7 +7526,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -7216,7 +7537,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7227,7 +7548,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.4550000000000001"/>
+    <x v="193"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7238,7 +7559,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.728"/>
+    <x v="194"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7249,7 +7570,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.8479999999999999"/>
+    <x v="195"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7260,7 +7581,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.266"/>
+    <x v="196"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7271,7 +7592,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7282,7 +7603,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.6949999999999998"/>
+    <x v="197"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7293,7 +7614,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.4060000000000001"/>
+    <x v="198"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7304,7 +7625,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.4209999999999998"/>
+    <x v="199"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7315,7 +7636,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.9870000000000001"/>
+    <x v="200"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7326,7 +7647,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0.95499999999999996"/>
+    <x v="201"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7337,7 +7658,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.8859999999999999"/>
+    <x v="202"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7348,7 +7669,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.488"/>
+    <x v="203"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7359,7 +7680,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.673"/>
+    <x v="204"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7370,7 +7691,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.0190000000000001"/>
+    <x v="205"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7381,7 +7702,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.069"/>
+    <x v="206"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7392,7 +7713,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.6779999999999999"/>
+    <x v="207"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7403,7 +7724,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.9610000000000001"/>
+    <x v="208"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7414,7 +7735,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.2480000000000002"/>
+    <x v="209"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7425,7 +7746,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.0910000000000002"/>
+    <x v="210"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -7436,7 +7757,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.762"/>
+    <x v="211"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7447,7 +7768,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.5299999999999998"/>
+    <x v="212"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7458,7 +7779,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="0.746"/>
+    <x v="213"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7469,7 +7790,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.099"/>
+    <x v="127"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7480,7 +7801,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.3079999999999998"/>
+    <x v="214"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7491,7 +7812,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.3479999999999999"/>
+    <x v="215"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7502,7 +7823,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.516"/>
+    <x v="216"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7513,7 +7834,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.6479999999999999"/>
+    <x v="217"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7524,7 +7845,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.91"/>
+    <x v="218"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7535,7 +7856,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.5660000000000001"/>
+    <x v="152"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7546,7 +7867,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.4569999999999999"/>
+    <x v="219"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7557,7 +7878,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.012"/>
+    <x v="220"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7568,7 +7889,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.0350000000000001"/>
+    <x v="221"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7579,7 +7900,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.1219999999999999"/>
+    <x v="222"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7590,7 +7911,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.2229999999999999"/>
+    <x v="223"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7601,7 +7922,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.8359999999999999"/>
+    <x v="224"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7612,7 +7933,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.149"/>
+    <x v="225"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7623,7 +7944,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.595"/>
+    <x v="226"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7634,7 +7955,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.1819999999999999"/>
+    <x v="227"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7645,7 +7966,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.978"/>
+    <x v="228"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -7656,7 +7977,7 @@
     <x v="0"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.2090000000000001"/>
+    <x v="229"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7667,7 +7988,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.1110000000000002"/>
+    <x v="230"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7678,7 +7999,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.347"/>
+    <x v="231"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7689,7 +8010,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.347"/>
+    <x v="231"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7700,7 +8021,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.988"/>
+    <x v="232"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7711,7 +8032,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.1269999999999998"/>
+    <x v="233"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7722,7 +8043,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.714"/>
+    <x v="234"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7733,7 +8054,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.804"/>
+    <x v="235"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7744,7 +8065,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.9570000000000001"/>
+    <x v="236"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7755,7 +8076,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.6120000000000001"/>
+    <x v="237"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7766,7 +8087,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.7410000000000001"/>
+    <x v="238"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7777,7 +8098,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.1659999999999999"/>
+    <x v="239"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7788,7 +8109,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.5649999999999999"/>
+    <x v="240"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7799,7 +8120,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.68"/>
+    <x v="241"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7810,7 +8131,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.7970000000000002"/>
+    <x v="242"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7821,7 +8142,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.6429999999999998"/>
+    <x v="243"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7832,7 +8153,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="1.091"/>
+    <x v="244"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7843,7 +8164,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.3730000000000002"/>
+    <x v="245"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7854,7 +8175,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.3690000000000002"/>
+    <x v="246"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7865,7 +8186,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.5169999999999999"/>
+    <x v="247"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7876,7 +8197,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="3.2719999999999998"/>
+    <x v="248"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7887,7 +8208,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.415"/>
+    <x v="249"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -7898,7 +8219,7 @@
     <x v="1"/>
     <x v="3"/>
     <d v="2021-09-27T11:42:00"/>
-    <n v="2.669"/>
+    <x v="250"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7909,7 +8230,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7920,7 +8241,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7931,7 +8252,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7942,7 +8263,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7953,7 +8274,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7964,7 +8285,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7975,7 +8296,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7986,7 +8307,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -7997,7 +8318,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8008,7 +8329,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8019,7 +8340,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8030,7 +8351,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8041,7 +8362,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="1.1319999999999999"/>
+    <x v="251"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8052,7 +8373,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8063,7 +8384,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="4.4530000000000003"/>
+    <x v="252"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8074,7 +8395,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8085,7 +8406,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8096,7 +8417,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8107,7 +8428,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8118,7 +8439,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="4.6369999999999996"/>
+    <x v="253"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8129,7 +8450,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controla_j"/>
@@ -8140,7 +8461,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8151,7 +8472,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8162,7 +8483,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8173,7 +8494,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.319"/>
+    <x v="254"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8184,7 +8505,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8195,7 +8516,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8206,7 +8527,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8217,7 +8538,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.222"/>
+    <x v="255"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8228,7 +8549,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8239,7 +8560,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8250,7 +8571,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8261,7 +8582,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8272,7 +8593,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0.82"/>
+    <x v="256"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8283,7 +8604,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8294,7 +8615,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.1259999999999999"/>
+    <x v="257"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8305,7 +8626,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8316,7 +8637,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8327,7 +8648,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8338,7 +8659,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="4.2220000000000004"/>
+    <x v="258"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8349,7 +8670,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8360,7 +8681,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8371,7 +8692,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8382,7 +8703,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8393,7 +8714,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_controlb_j"/>
@@ -8404,7 +8725,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8415,7 +8736,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8426,7 +8747,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8437,7 +8758,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8448,7 +8769,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8459,7 +8780,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8470,7 +8791,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8481,7 +8802,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8492,7 +8813,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8503,7 +8824,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="1.754"/>
+    <x v="157"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8514,7 +8835,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="1.3049999999999999"/>
+    <x v="259"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8525,7 +8846,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0.76100000000000001"/>
+    <x v="260"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8536,7 +8857,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8547,7 +8868,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8558,7 +8879,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="1.0349999999999999"/>
+    <x v="90"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8569,7 +8890,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8580,7 +8901,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8591,7 +8912,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8602,7 +8923,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8613,7 +8934,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_WT_137.5_j"/>
@@ -8624,7 +8945,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8635,7 +8956,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.5249999999999999"/>
+    <x v="261"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8646,7 +8967,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.6440000000000001"/>
+    <x v="262"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8657,7 +8978,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.278"/>
+    <x v="263"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8668,7 +8989,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.17"/>
+    <x v="264"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8679,7 +9000,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8690,7 +9011,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.4049999999999998"/>
+    <x v="265"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8701,7 +9022,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.879"/>
+    <x v="266"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8712,7 +9033,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.06"/>
+    <x v="267"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8723,7 +9044,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.1560000000000001"/>
+    <x v="268"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8734,7 +9055,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="1.1100000000000001"/>
+    <x v="269"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8745,7 +9066,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.8010000000000002"/>
+    <x v="270"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8756,7 +9077,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.8940000000000001"/>
+    <x v="271"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8767,7 +9088,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.36"/>
+    <x v="272"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8778,7 +9099,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.66"/>
+    <x v="273"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8789,7 +9110,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="4.0890000000000004"/>
+    <x v="274"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8800,7 +9121,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.395"/>
+    <x v="275"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8811,7 +9132,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.8210000000000002"/>
+    <x v="276"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8822,7 +9143,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.8220000000000001"/>
+    <x v="277"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8833,7 +9154,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.8029999999999999"/>
+    <x v="278"/>
   </r>
   <r>
     <s v="1_KO_controla_j"/>
@@ -8844,7 +9165,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.4529999999999998"/>
+    <x v="279"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8855,7 +9176,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.33"/>
+    <x v="280"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8866,7 +9187,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="1.3480000000000001"/>
+    <x v="75"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8877,7 +9198,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.0179999999999998"/>
+    <x v="281"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8888,7 +9209,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="4.1820000000000004"/>
+    <x v="282"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8899,7 +9220,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.3679999999999999"/>
+    <x v="283"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8910,7 +9231,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.516"/>
+    <x v="284"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8921,7 +9242,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="1.7090000000000001"/>
+    <x v="285"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8932,7 +9253,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.1749999999999998"/>
+    <x v="286"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8943,7 +9264,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.3180000000000001"/>
+    <x v="287"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8954,7 +9275,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.3839999999999999"/>
+    <x v="288"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8965,7 +9286,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="4.3339999999999996"/>
+    <x v="289"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8976,7 +9297,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.9910000000000001"/>
+    <x v="290"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8987,7 +9308,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.923"/>
+    <x v="291"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -8998,7 +9319,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="4.375"/>
+    <x v="292"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -9009,7 +9330,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.6179999999999999"/>
+    <x v="293"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -9020,7 +9341,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="4.4800000000000004"/>
+    <x v="294"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -9031,7 +9352,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="1.7789999999999999"/>
+    <x v="295"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -9042,7 +9363,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.5030000000000001"/>
+    <x v="296"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -9053,7 +9374,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="2.681"/>
+    <x v="297"/>
   </r>
   <r>
     <s v="1_KO_controlb_j"/>
@@ -9064,7 +9385,7 @@
     <x v="0"/>
     <x v="4"/>
     <d v="2021-09-28T10:41:00"/>
-    <n v="3.0630000000000002"/>
+    <x v="298"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9075,7 +9396,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.4470000000000001"/>
+    <x v="299"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9086,7 +9407,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.109"/>
+    <x v="300"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9097,7 +9418,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.0139999999999998"/>
+    <x v="301"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9108,7 +9429,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.8050000000000002"/>
+    <x v="302"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9119,7 +9440,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.1139999999999999"/>
+    <x v="303"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9130,7 +9451,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.754"/>
+    <x v="304"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9141,7 +9462,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="2.7160000000000002"/>
+    <x v="305"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9152,7 +9473,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="2.8319999999999999"/>
+    <x v="306"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9163,7 +9484,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.6629999999999998"/>
+    <x v="307"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9174,7 +9495,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.61"/>
+    <x v="308"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9185,7 +9506,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="4.0780000000000003"/>
+    <x v="309"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9196,7 +9517,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.0640000000000001"/>
+    <x v="310"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9207,7 +9528,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.4470000000000001"/>
+    <x v="299"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9218,7 +9539,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.395"/>
+    <x v="275"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9229,7 +9550,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.78"/>
+    <x v="311"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9240,7 +9561,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="1.151"/>
+    <x v="99"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9251,7 +9572,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="4.1820000000000004"/>
+    <x v="282"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9262,7 +9583,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="2.9"/>
+    <x v="312"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9273,7 +9594,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.004"/>
+    <x v="313"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9284,7 +9605,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="4.2759999999999998"/>
+    <x v="314"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9295,7 +9616,7 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.0329999999999999"/>
+    <x v="315"/>
   </r>
   <r>
     <s v="1_KO_137.5_j"/>
@@ -9306,14 +9627,14 @@
     <x v="1"/>
     <x v="4"/>
     <d v="2021-09-28T10:42:00"/>
-    <n v="3.0659999999999998"/>
+    <x v="316"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="K7:N11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="K7:N11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9344,7 +9665,328 @@
       </items>
     </pivotField>
     <pivotField numFmtId="22" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="318">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="22"/>
+        <item x="54"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="116"/>
+        <item x="56"/>
+        <item x="3"/>
+        <item x="26"/>
+        <item x="72"/>
+        <item x="40"/>
+        <item x="37"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="5"/>
+        <item x="94"/>
+        <item x="9"/>
+        <item x="84"/>
+        <item x="32"/>
+        <item x="23"/>
+        <item x="65"/>
+        <item x="42"/>
+        <item x="27"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="101"/>
+        <item x="44"/>
+        <item x="52"/>
+        <item x="55"/>
+        <item x="2"/>
+        <item x="50"/>
+        <item x="10"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="43"/>
+        <item x="192"/>
+        <item x="36"/>
+        <item x="11"/>
+        <item x="53"/>
+        <item x="13"/>
+        <item x="147"/>
+        <item x="190"/>
+        <item x="39"/>
+        <item x="21"/>
+        <item x="46"/>
+        <item x="34"/>
+        <item x="12"/>
+        <item x="64"/>
+        <item x="51"/>
+        <item x="35"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="33"/>
+        <item x="6"/>
+        <item x="31"/>
+        <item x="28"/>
+        <item x="191"/>
+        <item x="24"/>
+        <item x="38"/>
+        <item x="85"/>
+        <item x="30"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="213"/>
+        <item x="14"/>
+        <item x="260"/>
+        <item x="108"/>
+        <item x="113"/>
+        <item x="148"/>
+        <item x="62"/>
+        <item x="135"/>
+        <item x="107"/>
+        <item x="256"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="79"/>
+        <item x="103"/>
+        <item x="61"/>
+        <item x="184"/>
+        <item x="58"/>
+        <item x="60"/>
+        <item x="112"/>
+        <item x="89"/>
+        <item x="201"/>
+        <item x="110"/>
+        <item x="95"/>
+        <item x="114"/>
+        <item x="82"/>
+        <item x="70"/>
+        <item x="118"/>
+        <item x="120"/>
+        <item x="63"/>
+        <item x="104"/>
+        <item x="83"/>
+        <item x="90"/>
+        <item x="117"/>
+        <item x="69"/>
+        <item x="74"/>
+        <item x="93"/>
+        <item x="125"/>
+        <item x="100"/>
+        <item x="105"/>
+        <item x="244"/>
+        <item x="127"/>
+        <item x="269"/>
+        <item x="98"/>
+        <item x="106"/>
+        <item x="251"/>
+        <item x="87"/>
+        <item x="92"/>
+        <item x="109"/>
+        <item x="99"/>
+        <item x="119"/>
+        <item x="71"/>
+        <item x="91"/>
+        <item x="111"/>
+        <item x="78"/>
+        <item x="128"/>
+        <item x="115"/>
+        <item x="66"/>
+        <item x="97"/>
+        <item x="68"/>
+        <item x="80"/>
+        <item x="96"/>
+        <item x="81"/>
+        <item x="86"/>
+        <item x="76"/>
+        <item x="73"/>
+        <item x="102"/>
+        <item x="259"/>
+        <item x="154"/>
+        <item x="75"/>
+        <item x="170"/>
+        <item x="134"/>
+        <item x="67"/>
+        <item x="161"/>
+        <item x="77"/>
+        <item x="171"/>
+        <item x="59"/>
+        <item x="136"/>
+        <item x="193"/>
+        <item x="145"/>
+        <item x="143"/>
+        <item x="163"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="162"/>
+        <item x="124"/>
+        <item x="226"/>
+        <item x="137"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="217"/>
+        <item x="123"/>
+        <item x="155"/>
+        <item x="144"/>
+        <item x="285"/>
+        <item x="139"/>
+        <item x="168"/>
+        <item x="194"/>
+        <item x="164"/>
+        <item x="157"/>
+        <item x="146"/>
+        <item x="211"/>
+        <item x="183"/>
+        <item x="165"/>
+        <item x="295"/>
+        <item x="173"/>
+        <item x="181"/>
+        <item x="142"/>
+        <item x="235"/>
+        <item x="169"/>
+        <item x="138"/>
+        <item x="166"/>
+        <item x="156"/>
+        <item x="141"/>
+        <item x="177"/>
+        <item x="202"/>
+        <item x="218"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="121"/>
+        <item x="178"/>
+        <item x="130"/>
+        <item x="160"/>
+        <item x="174"/>
+        <item x="236"/>
+        <item x="208"/>
+        <item x="158"/>
+        <item x="228"/>
+        <item x="172"/>
+        <item x="281"/>
+        <item x="205"/>
+        <item x="133"/>
+        <item x="182"/>
+        <item x="131"/>
+        <item x="210"/>
+        <item x="140"/>
+        <item x="180"/>
+        <item x="230"/>
+        <item x="159"/>
+        <item x="222"/>
+        <item x="257"/>
+        <item x="233"/>
+        <item x="167"/>
+        <item x="132"/>
+        <item x="227"/>
+        <item x="122"/>
+        <item x="229"/>
+        <item x="149"/>
+        <item x="209"/>
+        <item x="179"/>
+        <item x="196"/>
+        <item x="126"/>
+        <item x="287"/>
+        <item x="231"/>
+        <item x="215"/>
+        <item x="246"/>
+        <item x="129"/>
+        <item x="198"/>
+        <item x="249"/>
+        <item x="199"/>
+        <item x="279"/>
+        <item x="219"/>
+        <item x="203"/>
+        <item x="216"/>
+        <item x="247"/>
+        <item x="261"/>
+        <item x="212"/>
+        <item x="240"/>
+        <item x="188"/>
+        <item x="237"/>
+        <item x="243"/>
+        <item x="262"/>
+        <item x="273"/>
+        <item x="250"/>
+        <item x="204"/>
+        <item x="207"/>
+        <item x="241"/>
+        <item x="297"/>
+        <item x="197"/>
+        <item x="234"/>
+        <item x="305"/>
+        <item x="238"/>
+        <item x="242"/>
+        <item x="270"/>
+        <item x="278"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="306"/>
+        <item x="224"/>
+        <item x="195"/>
+        <item x="266"/>
+        <item x="271"/>
+        <item x="312"/>
+        <item x="291"/>
+        <item x="200"/>
+        <item x="232"/>
+        <item x="313"/>
+        <item x="220"/>
+        <item x="301"/>
+        <item x="315"/>
+        <item x="221"/>
+        <item x="189"/>
+        <item x="186"/>
+        <item x="267"/>
+        <item x="298"/>
+        <item x="310"/>
+        <item x="316"/>
+        <item x="206"/>
+        <item x="187"/>
+        <item x="300"/>
+        <item x="303"/>
+        <item x="225"/>
+        <item x="268"/>
+        <item x="239"/>
+        <item x="264"/>
+        <item x="286"/>
+        <item x="255"/>
+        <item x="223"/>
+        <item x="248"/>
+        <item x="263"/>
+        <item x="214"/>
+        <item x="254"/>
+        <item x="280"/>
+        <item x="272"/>
+        <item x="283"/>
+        <item x="245"/>
+        <item x="288"/>
+        <item x="275"/>
+        <item x="265"/>
+        <item x="299"/>
+        <item x="185"/>
+        <item x="296"/>
+        <item x="284"/>
+        <item x="308"/>
+        <item x="293"/>
+        <item x="307"/>
+        <item x="304"/>
+        <item x="311"/>
+        <item x="302"/>
+        <item x="290"/>
+        <item x="309"/>
+        <item x="274"/>
+        <item x="282"/>
+        <item x="258"/>
+        <item x="314"/>
+        <item x="289"/>
+        <item x="292"/>
+        <item x="252"/>
+        <item x="294"/>
+        <item x="253"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="4"/>
@@ -9374,8 +10016,9 @@
       <x/>
     </i>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="6" item="4" hier="-1"/>
+    <pageField fld="8" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Average of root" fld="8" subtotal="average" baseField="5" baseItem="0"/>
@@ -9715,23 +10358,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N641"/>
+  <dimension ref="A1:R641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="11" max="11" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.41796875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.68359375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.68359375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.68359375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9763,7 +10406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -9791,14 +10434,14 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="M2">
+      <c r="R2">
         <v>137.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -9826,17 +10469,17 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3">
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3">
         <v>0.525092</v>
       </c>
-      <c r="M3">
+      <c r="R3">
         <v>0.2115677</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -9864,17 +10507,23 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4">
         <v>0.1251622</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>0.14008950000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -9903,13 +10552,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9938,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9973,7 +10622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -10014,7 +10663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -10046,16 +10695,16 @@
         <v>11</v>
       </c>
       <c r="L9" s="4">
-        <v>0.52023913043478265</v>
+        <v>2.9913750000000001</v>
       </c>
       <c r="M9" s="4">
-        <v>0.24275000000000002</v>
+        <v>1.2137500000000001</v>
       </c>
       <c r="N9" s="4">
-        <v>0.43615151515151518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>2.3988333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -10087,16 +10736,16 @@
         <v>15</v>
       </c>
       <c r="L10" s="4">
-        <v>2.9605000000000006</v>
+        <v>3.0364102564102571</v>
       </c>
       <c r="M10" s="4">
         <v>3.2927272727272725</v>
       </c>
       <c r="N10" s="4">
-        <v>3.0783870967741951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>3.1288524590163949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10128,16 +10777,16 @@
         <v>21</v>
       </c>
       <c r="L11" s="4">
-        <v>1.6552441860465117</v>
+        <v>3.0287446808510636</v>
       </c>
       <c r="M11" s="4">
-        <v>1.8403571428571428</v>
+        <v>2.9728846153846153</v>
       </c>
       <c r="N11" s="4">
-        <v>1.7159843750000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>3.0088493150684945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -10166,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -10195,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -10224,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -10253,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>9</v>
       </c>

--- a/experiment1_j_new.xlsx
+++ b/experiment1_j_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcela Morassi\Documents\Github\ClarkLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6DABA02A-A4F0-4ACD-A369-3F4B959C9800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{022290B9-C44B-47C4-8523-61879249D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="26">
   <si>
     <t>plate_id</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>137.5 µM ATP</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1154,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>137.5</c:v>
+                  <c:v>137.5 µM ATP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1413,13 +1416,13 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39321912990062508"/>
-          <c:y val="2.878955950367636E-2"/>
-          <c:w val="0.20047252932342746"/>
-          <c:h val="0.1221887824068181"/>
+          <c:x val="0.35354174067998362"/>
+          <c:y val="2.302164596630964E-2"/>
+          <c:w val="0.28919509367785912"/>
+          <c:h val="0.1071514732713838"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9633,7 +9636,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="K7:N11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -9650,7 +9653,7 @@
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="0"/>
-        <item x="1"/>
+        <item n="137.5 µM ATP" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10361,7 +10364,7 @@
   <dimension ref="A1:R641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10656,8 +10659,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>137.5</v>
+      <c r="M8" t="s">
+        <v>25</v>
       </c>
       <c r="N8" t="s">
         <v>21</v>
@@ -29058,6 +29061,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>